--- a/doc/log/log_201608040223-刘源 .xlsx
+++ b/doc/log/log_201608040223-刘源 .xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="110">
   <si>
     <t>日期</t>
   </si>
@@ -572,6 +572,17 @@
   </si>
   <si>
     <t>讨论分配完毕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>13：:30-16:40</t>
+  </si>
+  <si>
+    <t>7月14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>回家休息</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -915,10 +926,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1458,6 +1469,17 @@
       </c>
       <c r="D37" s="3" t="s">
         <v>106</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>108</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
